--- a/schema de horarios 2026.xlsx
+++ b/schema de horarios 2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lunes-Viernes" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,10 @@
     <t>Levantarte, lavarte los dientes, preparar café</t>
   </si>
   <si>
+    <t>6:55 – 7:15 am</t>
+  </si>
+  <si>
     <t>Lectura ligera (ficción, recreativa, inspiración suave)</t>
-  </si>
-  <si>
-    <t>6:55 – 7:15 am</t>
   </si>
   <si>
     <t>7:15 – 9:00 am</t>
@@ -409,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,12 +432,6 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -933,7 +927,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,16 +951,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -975,85 +969,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,10 +1091,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,10 +1106,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1859,7 +1853,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.1428571428571" defaultRowHeight="17" customHeight="1" outlineLevelCol="1"/>
@@ -1897,16 +1891,16 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">

--- a/schema de horarios 2026.xlsx
+++ b/schema de horarios 2026.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Lunes-Viernes" sheetId="1" r:id="rId1"/>
-    <sheet name="Fin De semana" sheetId="2" r:id="rId2"/>
+    <sheet name="Sabado" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Hora</t>
   </si>
@@ -165,61 +165,73 @@
     <t>Levantarte, lavarte los dientes, preparar café</t>
   </si>
   <si>
-    <t>6:55 – 7:15 am</t>
+    <t>6:55 – 7:25 am</t>
   </si>
   <si>
     <t>Lectura ligera (ficción, recreativa, inspiración suave)</t>
   </si>
   <si>
-    <t>7:15 – 9:00 am</t>
+    <t>7:25 – 7:55 am</t>
+  </si>
+  <si>
+    <t>Escritura Samadahi (ritual breve de continuidad)</t>
+  </si>
+  <si>
+    <t>7:55 – 9:25 am</t>
   </si>
   <si>
     <t>Estudio de algoritmia (90 min)</t>
   </si>
   <si>
-    <t>9:00 – 9:40 am</t>
-  </si>
-  <si>
-    <t>Presentaciones para TheoriticalCode (video, edición, publicación)</t>
-  </si>
-  <si>
-    <t>9:40 – 11:40 am</t>
+    <t>9:25 – 10:05 am</t>
+  </si>
+  <si>
+    <t>Presentaciones para TheoriticalCode</t>
+  </si>
+  <si>
+    <t>10:05 – 12:05 pm</t>
   </si>
   <si>
     <t>Quehaceres del hogar</t>
   </si>
   <si>
-    <t>11:40 – 1:30 pm</t>
+    <t>12:05 – 1:55 pm</t>
   </si>
   <si>
     <t>Cocinar y comer en familia</t>
   </si>
   <si>
-    <t>1:30 – 2:30 pm</t>
+    <t>1:55 – 2:55 pm</t>
   </si>
   <si>
     <t>Lectura profunda (ensayo, filosofía, historia)</t>
   </si>
   <si>
-    <t>2:30 – 4:30 pm</t>
+    <t>2:55 – 4:55 pm</t>
   </si>
   <si>
     <t>Desarrollo técnico: Aeternum Dashboard</t>
   </si>
   <si>
-    <t>4:30 – 5:00 pm</t>
+    <t>4:55 – 5:25 pm</t>
   </si>
   <si>
     <t>Correr</t>
   </si>
   <si>
-    <t>5:00 – 6:00 pm</t>
+    <t>5:25 – 6:25 pm</t>
   </si>
   <si>
     <t>Pasear perras y convivencia con mascotas</t>
   </si>
   <si>
-    <t>6:00 – 6:15 pm</t>
+    <t>6:25 – 6:40 pm</t>
+  </si>
+  <si>
+    <t>6:40 – 7:30 pm</t>
+  </si>
+  <si>
+    <t>Tiempo con Sule</t>
   </si>
   <si>
     <t>Cuidar a Annie (acompañamiento, juego, atención plena)</t>
@@ -234,7 +246,7 @@
     <t>10:30 – 11:00 pm</t>
   </si>
   <si>
-    <t>Bloque creativo: pintura, dibujo, exploración</t>
+    <t>Bloque creativo: pintura, dibujo, exploración artística</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +444,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -927,7 +945,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,16 +969,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -969,85 +987,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,10 +1109,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,10 +1124,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1850,17 +1868,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="57.1428571428571" defaultRowHeight="17" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="31.7142857142857" defaultRowHeight="14" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="57.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="101" customWidth="1"/>
-    <col min="3" max="16384" width="57.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="66.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="84.2857142857143" customWidth="1"/>
+    <col min="3" max="16384" width="31.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -1891,7 +1909,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1899,7 +1917,7 @@
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1972,63 +1990,79 @@
         <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>68</v>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
